--- a/generated_docs/WR_89719272_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_081025.xlsx
@@ -70,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -81,6 +81,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C00000"/>
         <bgColor rgb="00C00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +131,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -526,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -581,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -601,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -724,22 +737,22 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -748,27 +761,61 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr"/>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H17" s="13" t="n">
-        <v>478.55</v>
+      <c r="H18" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>

--- a/generated_docs/WR_89719272_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_081025.xlsx
@@ -70,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -81,12 +81,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C00000"/>
         <bgColor rgb="00C00000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -131,13 +125,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -539,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +558,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +581,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +601,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +630,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -737,22 +720,22 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,61 +744,27 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D17" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E17" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13" t="inlineStr"/>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H18" s="16" t="n">
-        <v>0</v>
+      <c r="H17" s="13" t="n">
+        <v>478.55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
